--- a/120000-140000.xlsx
+++ b/120000-140000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -68,6 +74,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Pris</t>
   </si>
   <si>
     <t>120000-140000</t>
@@ -432,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,10 +481,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -469,18 +499,21 @@
         <v>123014.81</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>44518</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -489,18 +522,21 @@
         <v>137845</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>44448</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -509,18 +545,21 @@
         <v>123510</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>44594</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -529,18 +568,21 @@
         <v>131316</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>44609</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -549,18 +591,21 @@
         <v>128134</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -569,18 +614,21 @@
         <v>132194</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>45035</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -589,13 +637,16 @@
         <v>125865</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>45044</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/120000-140000.xlsx
+++ b/120000-140000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -61,6 +64,12 @@
     <t>17038117</t>
   </si>
   <si>
+    <t>36934085</t>
+  </si>
+  <si>
+    <t>87719715</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>BPO Løn</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -88,10 +94,19 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
-    <t>Bruger ikke produktet</t>
-  </si>
-  <si>
-    <t>Pris</t>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>120000-140000</t>
@@ -456,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,10 +502,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -499,21 +517,24 @@
         <v>123014.81</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>44518</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -522,21 +543,24 @@
         <v>137845</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>44448</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -545,21 +569,24 @@
         <v>123510</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>44594</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -568,21 +595,24 @@
         <v>131316</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>44609</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -591,21 +621,15 @@
         <v>128134</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -614,21 +638,21 @@
         <v>132194</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>45035</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -637,16 +661,62 @@
         <v>125865</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>45044</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>129827.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10">
+        <v>129351.38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/120000-140000.xlsx
+++ b/120000-140000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>CVR</t>
   </si>
@@ -70,6 +70,18 @@
     <t>87719715</t>
   </si>
   <si>
+    <t>41895128</t>
+  </si>
+  <si>
+    <t>26317797</t>
+  </si>
+  <si>
+    <t>20367997</t>
+  </si>
+  <si>
+    <t>35432604</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -82,6 +94,15 @@
     <t>BPO Løn</t>
   </si>
   <si>
+    <t>Visma HR inkl. Self Service</t>
+  </si>
+  <si>
+    <t>BPO Løn &amp; HR</t>
+  </si>
+  <si>
+    <t>Visma Refusion Manuel</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
+    <t>Baltic Assist</t>
+  </si>
+  <si>
     <t>2021Q4</t>
   </si>
   <si>
@@ -107,6 +131,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>120000-140000</t>
@@ -471,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,19 +544,19 @@
         <v>123014.81</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>44518</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -543,19 +570,19 @@
         <v>137845</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>44448</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -569,19 +596,19 @@
         <v>123510</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>44594</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -595,19 +622,19 @@
         <v>131316</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>44609</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -621,10 +648,10 @@
         <v>128134</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -638,16 +665,16 @@
         <v>132194</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>45035</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -661,16 +688,16 @@
         <v>125865</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>45044</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -684,16 +711,16 @@
         <v>129827.5</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>45160</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,16 +734,111 @@
         <v>129351.38</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>45169</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11">
+        <v>120288</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45183</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12">
+        <v>132000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>128494</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>128519</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45279</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/120000-140000.xlsx
+++ b/120000-140000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>CVR</t>
   </si>
@@ -82,6 +82,12 @@
     <t>35432604</t>
   </si>
   <si>
+    <t>33638760</t>
+  </si>
+  <si>
+    <t>38538071</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -103,6 +109,12 @@
     <t>Visma Refusion Manuel</t>
   </si>
   <si>
+    <t>Løn/HR og Time</t>
+  </si>
+  <si>
+    <t>EasyCruit</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -134,6 +146,12 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
   </si>
   <si>
     <t>120000-140000</t>
@@ -498,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,19 +562,19 @@
         <v>123014.81</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>44518</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -570,19 +588,19 @@
         <v>137845</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>44448</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -596,19 +614,19 @@
         <v>123510</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>44594</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -622,19 +640,19 @@
         <v>131316</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>44609</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -648,10 +666,10 @@
         <v>128134</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -665,16 +683,16 @@
         <v>132194</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>45035</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -688,16 +706,16 @@
         <v>125865</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>45044</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -711,16 +729,16 @@
         <v>129827.5</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>45160</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -734,16 +752,16 @@
         <v>129351.38</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>45169</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,16 +775,16 @@
         <v>120288</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>45183</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -780,19 +798,19 @@
         <v>132000</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>45230</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -806,16 +824,16 @@
         <v>128494</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>45231</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -829,16 +847,62 @@
         <v>128519</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
         <v>45279</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15">
+        <v>127477</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <v>129216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45450</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/120000-140000.xlsx
+++ b/120000-140000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>CVR</t>
   </si>
@@ -43,6 +43,9 @@
     <t>TCV_range</t>
   </si>
   <si>
+    <t>985081611</t>
+  </si>
+  <si>
     <t>39884216</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>38538071</t>
   </si>
   <si>
+    <t>SKL NO</t>
+  </si>
+  <si>
     <t>Visma Løn og HR</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>EasyCruit</t>
   </si>
   <si>
+    <t>Pris</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -127,13 +136,16 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
+    <t>Visma Norge</t>
+  </si>
+  <si>
     <t>Baltic Assist</t>
   </si>
   <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
     <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
   </si>
   <si>
     <t>2022Q1</t>
@@ -516,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,22 +571,25 @@
         <v>2021</v>
       </c>
       <c r="C2">
-        <v>123014.81</v>
+        <v>120575.25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
-        <v>44518</v>
+        <v>44469</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -585,22 +600,22 @@
         <v>2021</v>
       </c>
       <c r="C3">
-        <v>137845</v>
+        <v>123014.81</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
-        <v>44448</v>
+        <v>44518</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -608,25 +623,25 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C4">
-        <v>123510</v>
+        <v>137845</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
-        <v>44594</v>
+        <v>44448</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -637,22 +652,22 @@
         <v>2022</v>
       </c>
       <c r="C5">
-        <v>131316</v>
+        <v>123510</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
-        <v>44609</v>
+        <v>44594</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -660,16 +675,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C6">
-        <v>128134</v>
+        <v>131316</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44609</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -680,19 +704,13 @@
         <v>2023</v>
       </c>
       <c r="C7">
-        <v>132194</v>
+        <v>128134</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45035</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -703,19 +721,19 @@
         <v>2023</v>
       </c>
       <c r="C8">
-        <v>125865</v>
+        <v>132194</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2">
-        <v>45044</v>
+        <v>45035</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -726,19 +744,19 @@
         <v>2023</v>
       </c>
       <c r="C9">
-        <v>129827.5</v>
+        <v>125865</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
-        <v>45160</v>
+        <v>45044</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -749,19 +767,19 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>129351.38</v>
+        <v>129827.5</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
-        <v>45169</v>
+        <v>45160</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -772,19 +790,19 @@
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>120288</v>
+        <v>129351.38</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>45183</v>
+        <v>45169</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -795,22 +813,19 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>132000</v>
+        <v>120288</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2">
-        <v>45230</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>45183</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -821,19 +836,22 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>128494</v>
+        <v>132000</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
-        <v>45231</v>
+        <v>45230</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,19 +862,19 @@
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>128519</v>
+        <v>128494</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2">
-        <v>45279</v>
+        <v>45231</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -864,22 +882,22 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C15">
-        <v>127477</v>
+        <v>128519</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>45295</v>
+        <v>45279</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -890,19 +908,42 @@
         <v>2024</v>
       </c>
       <c r="C16">
+        <v>127477</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
         <v>129216</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
         <v>45450</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
